--- a/PythonResources/Data/Consumption/Sympheny/futu_1345_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_1345_coo.xlsx
@@ -22543,7 +22543,7 @@
         <v>2775</v>
       </c>
       <c r="B2775">
-        <v>5.772737476927984</v>
+        <v>5.772737476927983</v>
       </c>
     </row>
     <row r="2776" spans="1:2">
@@ -22751,7 +22751,7 @@
         <v>2801</v>
       </c>
       <c r="B2801">
-        <v>7.551795910017813</v>
+        <v>7.551795910017812</v>
       </c>
     </row>
     <row r="2802" spans="1:2">
@@ -24679,7 +24679,7 @@
         <v>3042</v>
       </c>
       <c r="B3042">
-        <v>4.604116710265869</v>
+        <v>4.604116710265868</v>
       </c>
     </row>
     <row r="3043" spans="1:2">
@@ -24831,7 +24831,7 @@
         <v>3061</v>
       </c>
       <c r="B3061">
-        <v>8.725955719310628</v>
+        <v>8.725955719310626</v>
       </c>
     </row>
     <row r="3062" spans="1:2">
@@ -28479,7 +28479,7 @@
         <v>3517</v>
       </c>
       <c r="B3517">
-        <v>51.60951683722425</v>
+        <v>51.60951683722424</v>
       </c>
     </row>
     <row r="3518" spans="1:2">
@@ -28495,7 +28495,7 @@
         <v>3519</v>
       </c>
       <c r="B3519">
-        <v>62.7095824265227</v>
+        <v>62.70958242652269</v>
       </c>
     </row>
     <row r="3520" spans="1:2">
@@ -29263,7 +29263,7 @@
         <v>3615</v>
       </c>
       <c r="B3615">
-        <v>24.43371348554662</v>
+        <v>24.43371348554661</v>
       </c>
     </row>
     <row r="3616" spans="1:2">
@@ -29431,7 +29431,7 @@
         <v>3636</v>
       </c>
       <c r="B3636">
-        <v>6.859503502491983</v>
+        <v>6.859503502491982</v>
       </c>
     </row>
     <row r="3637" spans="1:2">
@@ -29455,7 +29455,7 @@
         <v>3639</v>
       </c>
       <c r="B3639">
-        <v>25.18189454014517</v>
+        <v>25.18189454014516</v>
       </c>
     </row>
     <row r="3640" spans="1:2">
@@ -29471,7 +29471,7 @@
         <v>3641</v>
       </c>
       <c r="B3641">
-        <v>43.69103044363336</v>
+        <v>43.69103044363335</v>
       </c>
     </row>
     <row r="3642" spans="1:2">
@@ -29671,7 +29671,7 @@
         <v>3666</v>
       </c>
       <c r="B3666">
-        <v>46.0092223594446</v>
+        <v>46.00922235944459</v>
       </c>
     </row>
     <row r="3667" spans="1:2">
@@ -29791,7 +29791,7 @@
         <v>3681</v>
       </c>
       <c r="B3681">
-        <v>67.25042509954159</v>
+        <v>67.25042509954157</v>
       </c>
     </row>
     <row r="3682" spans="1:2">
@@ -29799,7 +29799,7 @@
         <v>3682</v>
       </c>
       <c r="B3682">
-        <v>72.20332565291832</v>
+        <v>72.20332565291831</v>
       </c>
     </row>
     <row r="3683" spans="1:2">
@@ -29847,7 +29847,7 @@
         <v>3688</v>
       </c>
       <c r="B3688">
-        <v>38.44300735432465</v>
+        <v>38.44300735432464</v>
       </c>
     </row>
     <row r="3689" spans="1:2">
@@ -29895,7 +29895,7 @@
         <v>3694</v>
       </c>
       <c r="B3694">
-        <v>7.083028783678992</v>
+        <v>7.083028783678991</v>
       </c>
     </row>
     <row r="3695" spans="1:2">
@@ -30007,7 +30007,7 @@
         <v>3708</v>
       </c>
       <c r="B3708">
-        <v>30.04915973602506</v>
+        <v>30.04915973602505</v>
       </c>
     </row>
     <row r="3709" spans="1:2">
@@ -30063,7 +30063,7 @@
         <v>3715</v>
       </c>
       <c r="B3715">
-        <v>54.13168619594379</v>
+        <v>54.13168619594378</v>
       </c>
     </row>
     <row r="3716" spans="1:2">
@@ -30103,7 +30103,7 @@
         <v>3720</v>
       </c>
       <c r="B3720">
-        <v>4.381822327441238</v>
+        <v>4.381822327441237</v>
       </c>
     </row>
     <row r="3721" spans="1:2">
@@ -30215,7 +30215,7 @@
         <v>3734</v>
       </c>
       <c r="B3734">
-        <v>40.35353745535796</v>
+        <v>40.35353745535795</v>
       </c>
     </row>
     <row r="3735" spans="1:2">
@@ -30391,7 +30391,7 @@
         <v>3756</v>
       </c>
       <c r="B3756">
-        <v>26.76881560028862</v>
+        <v>26.76881560028861</v>
       </c>
     </row>
     <row r="3757" spans="1:2">
@@ -30415,7 +30415,7 @@
         <v>3759</v>
       </c>
       <c r="B3759">
-        <v>36.74378147216617</v>
+        <v>36.74378147216616</v>
       </c>
     </row>
     <row r="3760" spans="1:2">
@@ -30447,7 +30447,7 @@
         <v>3763</v>
       </c>
       <c r="B3763">
-        <v>39.74717347636764</v>
+        <v>39.74717347636763</v>
       </c>
     </row>
     <row r="3764" spans="1:2">
@@ -30639,7 +30639,7 @@
         <v>3787</v>
       </c>
       <c r="B3787">
-        <v>30.31907816263216</v>
+        <v>30.31907816263215</v>
       </c>
     </row>
     <row r="3788" spans="1:2">
@@ -31135,7 +31135,7 @@
         <v>3849</v>
       </c>
       <c r="B3849">
-        <v>18.07879039031788</v>
+        <v>18.07879039031787</v>
       </c>
     </row>
     <row r="3850" spans="1:2">
@@ -31151,7 +31151,7 @@
         <v>3851</v>
       </c>
       <c r="B3851">
-        <v>22.45832676365756</v>
+        <v>22.45832676365755</v>
       </c>
     </row>
     <row r="3852" spans="1:2">
@@ -31391,7 +31391,7 @@
         <v>3881</v>
       </c>
       <c r="B3881">
-        <v>29.85661206362456</v>
+        <v>29.85661206362455</v>
       </c>
     </row>
     <row r="3882" spans="1:2">
@@ -31415,7 +31415,7 @@
         <v>3884</v>
       </c>
       <c r="B3884">
-        <v>9.154630727560578</v>
+        <v>9.154630727560576</v>
       </c>
     </row>
     <row r="3885" spans="1:2">
@@ -31791,7 +31791,7 @@
         <v>3931</v>
       </c>
       <c r="B3931">
-        <v>16.43820802299553</v>
+        <v>16.43820802299552</v>
       </c>
     </row>
     <row r="3932" spans="1:2">
@@ -31959,7 +31959,7 @@
         <v>3952</v>
       </c>
       <c r="B3952">
-        <v>14.85500896504308</v>
+        <v>14.85500896504307</v>
       </c>
     </row>
     <row r="3953" spans="1:2">
@@ -31975,7 +31975,7 @@
         <v>3954</v>
       </c>
       <c r="B3954">
-        <v>20.00910278646083</v>
+        <v>20.00910278646082</v>
       </c>
     </row>
     <row r="3955" spans="1:2">
@@ -32175,7 +32175,7 @@
         <v>3979</v>
       </c>
       <c r="B3979">
-        <v>6.93239026980706</v>
+        <v>6.932390269807059</v>
       </c>
     </row>
     <row r="3980" spans="1:2">
@@ -32527,7 +32527,7 @@
         <v>4023</v>
       </c>
       <c r="B4023">
-        <v>43.15353815872845</v>
+        <v>43.15353815872844</v>
       </c>
     </row>
     <row r="4024" spans="1:2">
@@ -32567,7 +32567,7 @@
         <v>4028</v>
       </c>
       <c r="B4028">
-        <v>5.70975651071966</v>
+        <v>5.709756510719659</v>
       </c>
     </row>
     <row r="4029" spans="1:2">
@@ -33135,7 +33135,7 @@
         <v>4099</v>
       </c>
       <c r="B4099">
-        <v>37.79326886161245</v>
+        <v>37.79326886161244</v>
       </c>
     </row>
     <row r="4100" spans="1:2">
@@ -33159,7 +33159,7 @@
         <v>4102</v>
       </c>
       <c r="B4102">
-        <v>6.343434710513221</v>
+        <v>6.34343471051322</v>
       </c>
     </row>
     <row r="4103" spans="1:2">
@@ -33455,7 +33455,7 @@
         <v>4139</v>
       </c>
       <c r="B4139">
-        <v>4.377631411588381</v>
+        <v>4.37763141158838</v>
       </c>
     </row>
     <row r="4140" spans="1:2">
@@ -33463,7 +33463,7 @@
         <v>4140</v>
       </c>
       <c r="B4140">
-        <v>19.97003641700727</v>
+        <v>19.97003641700726</v>
       </c>
     </row>
     <row r="4141" spans="1:2">
@@ -33543,7 +33543,7 @@
         <v>4150</v>
       </c>
       <c r="B4150">
-        <v>2.208193562870479</v>
+        <v>2.208193562870478</v>
       </c>
     </row>
     <row r="4151" spans="1:2">
@@ -34055,7 +34055,7 @@
         <v>4214</v>
       </c>
       <c r="B4214">
-        <v>11.34205434592113</v>
+        <v>11.34205434592112</v>
       </c>
     </row>
     <row r="4215" spans="1:2">
@@ -34103,7 +34103,7 @@
         <v>4220</v>
       </c>
       <c r="B4220">
-        <v>6.937050099321776</v>
+        <v>6.937050099321775</v>
       </c>
     </row>
     <row r="4221" spans="1:2">
@@ -34415,7 +34415,7 @@
         <v>4259</v>
       </c>
       <c r="B4259">
-        <v>17.5818591371637</v>
+        <v>17.58185913716369</v>
       </c>
     </row>
     <row r="4260" spans="1:2">
@@ -34615,7 +34615,7 @@
         <v>4284</v>
       </c>
       <c r="B4284">
-        <v>64.58846085538059</v>
+        <v>64.58846085538057</v>
       </c>
     </row>
     <row r="4285" spans="1:2">
@@ -34671,7 +34671,7 @@
         <v>4291</v>
       </c>
       <c r="B4291">
-        <v>62.11845814154277</v>
+        <v>62.11845814154276</v>
       </c>
     </row>
     <row r="4292" spans="1:2">
@@ -34975,7 +34975,7 @@
         <v>4329</v>
       </c>
       <c r="B4329">
-        <v>17.84055294299007</v>
+        <v>17.84055294299006</v>
       </c>
     </row>
     <row r="4330" spans="1:2">
@@ -35015,7 +35015,7 @@
         <v>4334</v>
       </c>
       <c r="B4334">
-        <v>47.91242568451138</v>
+        <v>47.91242568451137</v>
       </c>
     </row>
     <row r="4335" spans="1:2">
@@ -35023,7 +35023,7 @@
         <v>4335</v>
       </c>
       <c r="B4335">
-        <v>53.0845433748068</v>
+        <v>53.08454337480679</v>
       </c>
     </row>
     <row r="4336" spans="1:2">
@@ -35143,7 +35143,7 @@
         <v>4350</v>
       </c>
       <c r="B4350">
-        <v>29.03853356630528</v>
+        <v>29.03853356630527</v>
       </c>
     </row>
     <row r="4351" spans="1:2">
@@ -35175,7 +35175,7 @@
         <v>4354</v>
       </c>
       <c r="B4354">
-        <v>61.8816567423044</v>
+        <v>61.88165674230439</v>
       </c>
     </row>
     <row r="4355" spans="1:2">
@@ -35183,7 +35183,7 @@
         <v>4355</v>
       </c>
       <c r="B4355">
-        <v>61.3972103153972</v>
+        <v>61.39721031539719</v>
       </c>
     </row>
     <row r="4356" spans="1:2">
@@ -35207,7 +35207,7 @@
         <v>4358</v>
       </c>
       <c r="B4358">
-        <v>68.90891410732614</v>
+        <v>68.90891410732613</v>
       </c>
     </row>
     <row r="4359" spans="1:2">
@@ -35399,7 +35399,7 @@
         <v>4382</v>
       </c>
       <c r="B4382">
-        <v>43.44162698973256</v>
+        <v>43.44162698973255</v>
       </c>
     </row>
     <row r="4383" spans="1:2">
@@ -35423,7 +35423,7 @@
         <v>4385</v>
       </c>
       <c r="B4385">
-        <v>48.19025702916233</v>
+        <v>48.19025702916232</v>
       </c>
     </row>
     <row r="4386" spans="1:2">
@@ -35479,7 +35479,7 @@
         <v>4392</v>
       </c>
       <c r="B4392">
-        <v>9.562907991519698</v>
+        <v>9.562907991519696</v>
       </c>
     </row>
     <row r="4393" spans="1:2">
@@ -35543,7 +35543,7 @@
         <v>4400</v>
       </c>
       <c r="B4400">
-        <v>5.911682456357327</v>
+        <v>5.911682456357326</v>
       </c>
     </row>
     <row r="4401" spans="1:2">
@@ -35559,7 +35559,7 @@
         <v>4402</v>
       </c>
       <c r="B4402">
-        <v>37.01106225942532</v>
+        <v>37.01106225942531</v>
       </c>
     </row>
     <row r="4403" spans="1:2">
@@ -35631,7 +35631,7 @@
         <v>4411</v>
       </c>
       <c r="B4411">
-        <v>52.86503316684945</v>
+        <v>52.86503316684944</v>
       </c>
     </row>
     <row r="4412" spans="1:2">
@@ -35655,7 +35655,7 @@
         <v>4414</v>
       </c>
       <c r="B4414">
-        <v>24.15714234636191</v>
+        <v>24.1571423463619</v>
       </c>
     </row>
     <row r="4415" spans="1:2">
@@ -35991,7 +35991,7 @@
         <v>4456</v>
       </c>
       <c r="B4456">
-        <v>41.85933645199995</v>
+        <v>41.85933645199994</v>
       </c>
     </row>
     <row r="4457" spans="1:2">
@@ -36031,7 +36031,7 @@
         <v>4461</v>
       </c>
       <c r="B4461">
-        <v>8.651046761828788</v>
+        <v>8.651046761828786</v>
       </c>
     </row>
     <row r="4462" spans="1:2">
@@ -36183,7 +36183,7 @@
         <v>4480</v>
       </c>
       <c r="B4480">
-        <v>47.11791009870047</v>
+        <v>47.11791009870046</v>
       </c>
     </row>
     <row r="4481" spans="1:2">
@@ -36351,7 +36351,7 @@
         <v>4501</v>
       </c>
       <c r="B4501">
-        <v>26.53755324368095</v>
+        <v>26.53755324368094</v>
       </c>
     </row>
     <row r="4502" spans="1:2">
@@ -36367,7 +36367,7 @@
         <v>4503</v>
       </c>
       <c r="B4503">
-        <v>38.73080311429009</v>
+        <v>38.73080311429008</v>
       </c>
     </row>
     <row r="4504" spans="1:2">
@@ -36375,7 +36375,7 @@
         <v>4504</v>
       </c>
       <c r="B4504">
-        <v>47.28349523554413</v>
+        <v>47.28349523554412</v>
       </c>
     </row>
     <row r="4505" spans="1:2">
@@ -36415,7 +36415,7 @@
         <v>4509</v>
       </c>
       <c r="B4509">
-        <v>18.8836806908974</v>
+        <v>18.88368069089739</v>
       </c>
     </row>
     <row r="4510" spans="1:2">
@@ -36527,7 +36527,7 @@
         <v>4523</v>
       </c>
       <c r="B4523">
-        <v>47.13021908232425</v>
+        <v>47.13021908232424</v>
       </c>
     </row>
     <row r="4524" spans="1:2">
@@ -36727,7 +36727,7 @@
         <v>4548</v>
       </c>
       <c r="B4548">
-        <v>38.22642785675392</v>
+        <v>38.22642785675391</v>
       </c>
     </row>
     <row r="4549" spans="1:2">
@@ -36951,7 +36951,7 @@
         <v>4576</v>
       </c>
       <c r="B4576">
-        <v>42.94985378685882</v>
+        <v>42.94985378685881</v>
       </c>
     </row>
     <row r="4577" spans="1:2">
@@ -37095,7 +37095,7 @@
         <v>4594</v>
       </c>
       <c r="B4594">
-        <v>33.0724805708555</v>
+        <v>33.07248057085549</v>
       </c>
     </row>
     <row r="4595" spans="1:2">
@@ -37111,7 +37111,7 @@
         <v>4596</v>
       </c>
       <c r="B4596">
-        <v>47.3292143175753</v>
+        <v>47.32921431757529</v>
       </c>
     </row>
     <row r="4597" spans="1:2">
@@ -37135,7 +37135,7 @@
         <v>4599</v>
       </c>
       <c r="B4599">
-        <v>55.1020444049515</v>
+        <v>55.10204440495149</v>
       </c>
     </row>
     <row r="4600" spans="1:2">
@@ -37151,7 +37151,7 @@
         <v>4601</v>
       </c>
       <c r="B4601">
-        <v>61.62375422828242</v>
+        <v>61.62375422828241</v>
       </c>
     </row>
     <row r="4602" spans="1:2">
@@ -37359,7 +37359,7 @@
         <v>4627</v>
       </c>
       <c r="B4627">
-        <v>22.14280648343475</v>
+        <v>22.14280648343474</v>
       </c>
     </row>
     <row r="4628" spans="1:2">
@@ -37583,7 +37583,7 @@
         <v>4655</v>
       </c>
       <c r="B4655">
-        <v>2.643635581403119</v>
+        <v>2.643635581403118</v>
       </c>
     </row>
     <row r="4656" spans="1:2">
@@ -37711,7 +37711,7 @@
         <v>4671</v>
       </c>
       <c r="B4671">
-        <v>52.94914455494526</v>
+        <v>52.94914455494525</v>
       </c>
     </row>
     <row r="4672" spans="1:2">
@@ -37735,7 +37735,7 @@
         <v>4674</v>
       </c>
       <c r="B4674">
-        <v>72.12185190417047</v>
+        <v>72.12185190417046</v>
       </c>
     </row>
     <row r="4675" spans="1:2">
@@ -37799,7 +37799,7 @@
         <v>4682</v>
       </c>
       <c r="B4682">
-        <v>2.747221540017972</v>
+        <v>2.747221540017971</v>
       </c>
     </row>
     <row r="4683" spans="1:2">
@@ -37831,7 +37831,7 @@
         <v>4686</v>
       </c>
       <c r="B4686">
-        <v>52.27918416056542</v>
+        <v>52.27918416056541</v>
       </c>
     </row>
     <row r="4687" spans="1:2">
@@ -37839,7 +37839,7 @@
         <v>4687</v>
       </c>
       <c r="B4687">
-        <v>65.31439781814474</v>
+        <v>65.31439781814473</v>
       </c>
     </row>
     <row r="4688" spans="1:2">
@@ -37879,7 +37879,7 @@
         <v>4692</v>
       </c>
       <c r="B4692">
-        <v>88.4549939598059</v>
+        <v>88.45499395980589</v>
       </c>
     </row>
     <row r="4693" spans="1:2">
@@ -37911,7 +37911,7 @@
         <v>4696</v>
       </c>
       <c r="B4696">
-        <v>70.22099314741298</v>
+        <v>70.22099314741297</v>
       </c>
     </row>
     <row r="4697" spans="1:2">
@@ -38095,7 +38095,7 @@
         <v>4719</v>
       </c>
       <c r="B4719">
-        <v>68.00742759240384</v>
+        <v>68.00742759240383</v>
       </c>
     </row>
     <row r="4720" spans="1:2">
@@ -38111,7 +38111,7 @@
         <v>4721</v>
       </c>
       <c r="B4721">
-        <v>79.12800815440859</v>
+        <v>79.12800815440858</v>
       </c>
     </row>
     <row r="4722" spans="1:2">
@@ -38151,7 +38151,7 @@
         <v>4726</v>
       </c>
       <c r="B4726">
-        <v>30.72029241455954</v>
+        <v>30.72029241455953</v>
       </c>
     </row>
     <row r="4727" spans="1:2">
@@ -38487,7 +38487,7 @@
         <v>4768</v>
       </c>
       <c r="B4768">
-        <v>35.78573224678223</v>
+        <v>35.78573224678222</v>
       </c>
     </row>
     <row r="4769" spans="1:2">
@@ -38511,7 +38511,7 @@
         <v>4771</v>
       </c>
       <c r="B4771">
-        <v>32.93503025372333</v>
+        <v>32.93503025372332</v>
       </c>
     </row>
     <row r="4772" spans="1:2">
@@ -38655,7 +38655,7 @@
         <v>4789</v>
       </c>
       <c r="B4789">
-        <v>23.38692234965603</v>
+        <v>23.38692234965602</v>
       </c>
     </row>
     <row r="4790" spans="1:2">
@@ -38911,7 +38911,7 @@
         <v>4821</v>
       </c>
       <c r="B4821">
-        <v>8.009455643991371</v>
+        <v>8.00945564399137</v>
       </c>
     </row>
     <row r="4822" spans="1:2">
@@ -39039,7 +39039,7 @@
         <v>4837</v>
       </c>
       <c r="B4837">
-        <v>15.83023215329257</v>
+        <v>15.83023215329256</v>
       </c>
     </row>
     <row r="4838" spans="1:2">
@@ -39231,7 +39231,7 @@
         <v>4861</v>
       </c>
       <c r="B4861">
-        <v>56.52871422115493</v>
+        <v>56.52871422115492</v>
       </c>
     </row>
     <row r="4862" spans="1:2">
@@ -39247,7 +39247,7 @@
         <v>4863</v>
       </c>
       <c r="B4863">
-        <v>58.85980126266727</v>
+        <v>58.85980126266726</v>
       </c>
     </row>
     <row r="4864" spans="1:2">
@@ -39615,7 +39615,7 @@
         <v>4909</v>
       </c>
       <c r="B4909">
-        <v>36.89647148330873</v>
+        <v>36.89647148330872</v>
       </c>
     </row>
     <row r="4910" spans="1:2">
@@ -39655,7 +39655,7 @@
         <v>4914</v>
       </c>
       <c r="B4914">
-        <v>51.8510073730812</v>
+        <v>51.85100737308119</v>
       </c>
     </row>
     <row r="4915" spans="1:2">
@@ -39815,7 +39815,7 @@
         <v>4934</v>
       </c>
       <c r="B4934">
-        <v>41.53842366466578</v>
+        <v>41.53842366466577</v>
       </c>
     </row>
     <row r="4935" spans="1:2">
@@ -39855,7 +39855,7 @@
         <v>4939</v>
       </c>
       <c r="B4939">
-        <v>52.45531985480089</v>
+        <v>52.45531985480088</v>
       </c>
     </row>
     <row r="4940" spans="1:2">
@@ -39975,7 +39975,7 @@
         <v>4954</v>
       </c>
       <c r="B4954">
-        <v>40.96517671304419</v>
+        <v>40.96517671304418</v>
       </c>
     </row>
     <row r="4955" spans="1:2">
@@ -39991,7 +39991,7 @@
         <v>4956</v>
       </c>
       <c r="B4956">
-        <v>43.67315311027502</v>
+        <v>43.67315311027501</v>
       </c>
     </row>
     <row r="4957" spans="1:2">
@@ -40007,7 +40007,7 @@
         <v>4958</v>
       </c>
       <c r="B4958">
-        <v>49.04602446205346</v>
+        <v>49.04602446205345</v>
       </c>
     </row>
     <row r="4959" spans="1:2">
@@ -40015,7 +40015,7 @@
         <v>4959</v>
       </c>
       <c r="B4959">
-        <v>52.43949401871318</v>
+        <v>52.43949401871317</v>
       </c>
     </row>
     <row r="4960" spans="1:2">
@@ -40199,7 +40199,7 @@
         <v>4982</v>
       </c>
       <c r="B4982">
-        <v>68.30753233599306</v>
+        <v>68.30753233599305</v>
       </c>
     </row>
     <row r="4983" spans="1:2">
@@ -40471,7 +40471,7 @@
         <v>5016</v>
       </c>
       <c r="B5016">
-        <v>21.600683676119</v>
+        <v>21.60068367611899</v>
       </c>
     </row>
     <row r="5017" spans="1:2">
@@ -40487,7 +40487,7 @@
         <v>5018</v>
       </c>
       <c r="B5018">
-        <v>8.715874075580677</v>
+        <v>8.715874075580675</v>
       </c>
     </row>
     <row r="5019" spans="1:2">
@@ -40567,7 +40567,7 @@
         <v>5028</v>
       </c>
       <c r="B5028">
-        <v>74.26654576509419</v>
+        <v>74.26654576509418</v>
       </c>
     </row>
     <row r="5029" spans="1:2">
@@ -40623,7 +40623,7 @@
         <v>5035</v>
       </c>
       <c r="B5035">
-        <v>61.47399492752647</v>
+        <v>61.47399492752646</v>
       </c>
     </row>
     <row r="5036" spans="1:2">
@@ -40631,7 +40631,7 @@
         <v>5036</v>
       </c>
       <c r="B5036">
-        <v>50.51636186301743</v>
+        <v>50.51636186301742</v>
       </c>
     </row>
     <row r="5037" spans="1:2">
@@ -40751,7 +40751,7 @@
         <v>5051</v>
       </c>
       <c r="B5051">
-        <v>40.19820980486745</v>
+        <v>40.19820980486744</v>
       </c>
     </row>
     <row r="5052" spans="1:2">
@@ -40759,7 +40759,7 @@
         <v>5052</v>
       </c>
       <c r="B5052">
-        <v>47.36760662363994</v>
+        <v>47.36760662363993</v>
       </c>
     </row>
     <row r="5053" spans="1:2">
@@ -40879,7 +40879,7 @@
         <v>5067</v>
       </c>
       <c r="B5067">
-        <v>7.620227997545237</v>
+        <v>7.620227997545236</v>
       </c>
     </row>
     <row r="5068" spans="1:2">
@@ -40951,7 +40951,7 @@
         <v>5076</v>
       </c>
       <c r="B5076">
-        <v>55.14043671101614</v>
+        <v>55.14043671101613</v>
       </c>
     </row>
     <row r="5077" spans="1:2">
@@ -40959,7 +40959,7 @@
         <v>5077</v>
       </c>
       <c r="B5077">
-        <v>61.16011584512017</v>
+        <v>61.16011584512016</v>
       </c>
     </row>
     <row r="5078" spans="1:2">
@@ -41007,7 +41007,7 @@
         <v>5083</v>
       </c>
       <c r="B5083">
-        <v>78.99817768428161</v>
+        <v>78.9981776842816</v>
       </c>
     </row>
     <row r="5084" spans="1:2">
@@ -41135,7 +41135,7 @@
         <v>5099</v>
       </c>
       <c r="B5099">
-        <v>55.50443094103353</v>
+        <v>55.50443094103352</v>
       </c>
     </row>
     <row r="5100" spans="1:2">
@@ -41143,7 +41143,7 @@
         <v>5100</v>
       </c>
       <c r="B5100">
-        <v>58.68630320777975</v>
+        <v>58.68630320777974</v>
       </c>
     </row>
     <row r="5101" spans="1:2">
@@ -41199,7 +41199,7 @@
         <v>5107</v>
       </c>
       <c r="B5107">
-        <v>78.96447451483556</v>
+        <v>78.96447451483554</v>
       </c>
     </row>
     <row r="5108" spans="1:2">
@@ -41231,7 +41231,7 @@
         <v>5111</v>
       </c>
       <c r="B5111">
-        <v>45.01102240176406</v>
+        <v>45.01102240176405</v>
       </c>
     </row>
     <row r="5112" spans="1:2">
@@ -41327,7 +41327,7 @@
         <v>5123</v>
       </c>
       <c r="B5123">
-        <v>75.29903503429811</v>
+        <v>75.2990350342981</v>
       </c>
     </row>
     <row r="5124" spans="1:2">
@@ -41383,7 +41383,7 @@
         <v>5130</v>
       </c>
       <c r="B5130">
-        <v>98.03958920818654</v>
+        <v>98.03958920818653</v>
       </c>
     </row>
     <row r="5131" spans="1:2">
@@ -41583,7 +41583,7 @@
         <v>5155</v>
       </c>
       <c r="B5155">
-        <v>68.62668669709527</v>
+        <v>68.62668669709525</v>
       </c>
     </row>
     <row r="5156" spans="1:2">
@@ -41607,7 +41607,7 @@
         <v>5158</v>
       </c>
       <c r="B5158">
-        <v>38.63907187918909</v>
+        <v>38.63907187918908</v>
       </c>
     </row>
     <row r="5159" spans="1:2">
@@ -41719,7 +41719,7 @@
         <v>5172</v>
       </c>
       <c r="B5172">
-        <v>63.170583170337</v>
+        <v>63.17058317033699</v>
       </c>
     </row>
     <row r="5173" spans="1:2">
@@ -41767,7 +41767,7 @@
         <v>5178</v>
       </c>
       <c r="B5178">
-        <v>78.48090730104434</v>
+        <v>78.48090730104433</v>
       </c>
     </row>
     <row r="5179" spans="1:2">
@@ -41775,7 +41775,7 @@
         <v>5179</v>
       </c>
       <c r="B5179">
-        <v>67.01860590796046</v>
+        <v>67.01860590796045</v>
       </c>
     </row>
     <row r="5180" spans="1:2">
@@ -42111,7 +42111,7 @@
         <v>5221</v>
       </c>
       <c r="B5221">
-        <v>63.5246129850399</v>
+        <v>63.52461298503989</v>
       </c>
     </row>
     <row r="5222" spans="1:2">
@@ -42119,7 +42119,7 @@
         <v>5222</v>
       </c>
       <c r="B5222">
-        <v>66.73110321903368</v>
+        <v>66.73110321903367</v>
       </c>
     </row>
     <row r="5223" spans="1:2">
@@ -42511,7 +42511,7 @@
         <v>5271</v>
       </c>
       <c r="B5271">
-        <v>19.99310110774992</v>
+        <v>19.99310110774991</v>
       </c>
     </row>
     <row r="5272" spans="1:2">
@@ -42919,7 +42919,7 @@
         <v>5322</v>
       </c>
       <c r="B5322">
-        <v>5.938322613771644</v>
+        <v>5.938322613771643</v>
       </c>
     </row>
     <row r="5323" spans="1:2">
@@ -43503,7 +43503,7 @@
         <v>5395</v>
       </c>
       <c r="B5395">
-        <v>27.57139063966272</v>
+        <v>27.57139063966271</v>
       </c>
     </row>
     <row r="5396" spans="1:2">
@@ -43631,7 +43631,7 @@
         <v>5411</v>
       </c>
       <c r="B5411">
-        <v>38.83542947509219</v>
+        <v>38.83542947509218</v>
       </c>
     </row>
     <row r="5412" spans="1:2">
@@ -43655,7 +43655,7 @@
         <v>5414</v>
       </c>
       <c r="B5414">
-        <v>46.941774404465</v>
+        <v>46.94177440446499</v>
       </c>
     </row>
     <row r="5415" spans="1:2">
@@ -43679,7 +43679,7 @@
         <v>5417</v>
       </c>
       <c r="B5417">
-        <v>61.45611759416813</v>
+        <v>61.45611759416812</v>
       </c>
     </row>
     <row r="5418" spans="1:2">
@@ -43695,7 +43695,7 @@
         <v>5419</v>
       </c>
       <c r="B5419">
-        <v>42.08119122826659</v>
+        <v>42.08119122826658</v>
       </c>
     </row>
     <row r="5420" spans="1:2">
@@ -43847,7 +43847,7 @@
         <v>5438</v>
       </c>
       <c r="B5438">
-        <v>20.44261346684869</v>
+        <v>20.44261346684868</v>
       </c>
     </row>
     <row r="5439" spans="1:2">
@@ -44055,7 +44055,7 @@
         <v>5464</v>
       </c>
       <c r="B5464">
-        <v>32.41277766282881</v>
+        <v>32.4127776628288</v>
       </c>
     </row>
     <row r="5465" spans="1:2">
@@ -44063,7 +44063,7 @@
         <v>5465</v>
       </c>
       <c r="B5465">
-        <v>35.08529246438162</v>
+        <v>35.08529246438161</v>
       </c>
     </row>
     <row r="5466" spans="1:2">
@@ -44423,7 +44423,7 @@
         <v>5510</v>
       </c>
       <c r="B5510">
-        <v>52.46762883842467</v>
+        <v>52.46762883842466</v>
       </c>
     </row>
     <row r="5511" spans="1:2">
@@ -44431,7 +44431,7 @@
         <v>5511</v>
       </c>
       <c r="B5511">
-        <v>56.6002235545883</v>
+        <v>56.60022355458829</v>
       </c>
     </row>
     <row r="5512" spans="1:2">
@@ -44455,7 +44455,7 @@
         <v>5514</v>
       </c>
       <c r="B5514">
-        <v>48.65389541232458</v>
+        <v>48.65389541232457</v>
       </c>
     </row>
     <row r="5515" spans="1:2">
@@ -44575,7 +44575,7 @@
         <v>5529</v>
       </c>
       <c r="B5529">
-        <v>56.72243417771008</v>
+        <v>56.72243417771007</v>
       </c>
     </row>
     <row r="5530" spans="1:2">
@@ -44607,7 +44607,7 @@
         <v>5533</v>
       </c>
       <c r="B5533">
-        <v>65.76543414664455</v>
+        <v>65.76543414664454</v>
       </c>
     </row>
     <row r="5534" spans="1:2">
@@ -44623,7 +44623,7 @@
         <v>5535</v>
       </c>
       <c r="B5535">
-        <v>71.11515288636875</v>
+        <v>71.11515288636873</v>
       </c>
     </row>
     <row r="5536" spans="1:2">
@@ -44807,7 +44807,7 @@
         <v>5558</v>
       </c>
       <c r="B5558">
-        <v>57.99875855108024</v>
+        <v>57.99875855108023</v>
       </c>
     </row>
     <row r="5559" spans="1:2">
@@ -44847,7 +44847,7 @@
         <v>5563</v>
       </c>
       <c r="B5563">
-        <v>44.44246458676105</v>
+        <v>44.44246458676104</v>
       </c>
     </row>
     <row r="5564" spans="1:2">
@@ -45391,7 +45391,7 @@
         <v>5631</v>
       </c>
       <c r="B5631">
-        <v>29.23008479717433</v>
+        <v>29.23008479717432</v>
       </c>
     </row>
     <row r="5632" spans="1:2">
@@ -45783,7 +45783,7 @@
         <v>5680</v>
       </c>
       <c r="B5680">
-        <v>40.88868517195358</v>
+        <v>40.88868517195357</v>
       </c>
     </row>
     <row r="5681" spans="1:2">
@@ -45951,7 +45951,7 @@
         <v>5701</v>
       </c>
       <c r="B5701">
-        <v>68.2518488386474</v>
+        <v>68.25184883864739</v>
       </c>
     </row>
     <row r="5702" spans="1:2">
@@ -46167,7 +46167,7 @@
         <v>5728</v>
       </c>
       <c r="B5728">
-        <v>35.6479888586114</v>
+        <v>35.64798885861139</v>
       </c>
     </row>
     <row r="5729" spans="1:2">
@@ -46343,7 +46343,7 @@
         <v>5750</v>
       </c>
       <c r="B5750">
-        <v>42.50907494471216</v>
+        <v>42.50907494471215</v>
       </c>
     </row>
     <row r="5751" spans="1:2">
@@ -46375,7 +46375,7 @@
         <v>5754</v>
       </c>
       <c r="B5754">
-        <v>49.31359832035127</v>
+        <v>49.31359832035126</v>
       </c>
     </row>
     <row r="5755" spans="1:2">
@@ -46543,7 +46543,7 @@
         <v>5775</v>
       </c>
       <c r="B5775">
-        <v>48.59029899693507</v>
+        <v>48.59029899693506</v>
       </c>
     </row>
     <row r="5776" spans="1:2">
@@ -46567,7 +46567,7 @@
         <v>5778</v>
       </c>
       <c r="B5778">
-        <v>46.3966622725549</v>
+        <v>46.39666227255489</v>
       </c>
     </row>
     <row r="5779" spans="1:2">
@@ -47127,7 +47127,7 @@
         <v>5848</v>
       </c>
       <c r="B5848">
-        <v>47.77526843841787</v>
+        <v>47.77526843841786</v>
       </c>
     </row>
     <row r="5849" spans="1:2">
@@ -47135,7 +47135,7 @@
         <v>5849</v>
       </c>
       <c r="B5849">
-        <v>54.12142870959064</v>
+        <v>54.12142870959063</v>
       </c>
     </row>
     <row r="5850" spans="1:2">
@@ -47263,7 +47263,7 @@
         <v>5865</v>
       </c>
       <c r="B5865">
-        <v>69.42413299329279</v>
+        <v>69.42413299329277</v>
       </c>
     </row>
     <row r="5866" spans="1:2">
@@ -47887,7 +47887,7 @@
         <v>5943</v>
       </c>
       <c r="B5943">
-        <v>43.23501190747631</v>
+        <v>43.2350119074763</v>
       </c>
     </row>
     <row r="5944" spans="1:2">
@@ -47903,7 +47903,7 @@
         <v>5945</v>
       </c>
       <c r="B5945">
-        <v>44.41198519874027</v>
+        <v>44.41198519874026</v>
       </c>
     </row>
     <row r="5946" spans="1:2">
@@ -48087,7 +48087,7 @@
         <v>5968</v>
       </c>
       <c r="B5968">
-        <v>41.46691433123241</v>
+        <v>41.4669143312324</v>
       </c>
     </row>
     <row r="5969" spans="1:2">
@@ -48463,7 +48463,7 @@
         <v>6015</v>
       </c>
       <c r="B6015">
-        <v>48.62312295326514</v>
+        <v>48.62312295326513</v>
       </c>
     </row>
     <row r="6016" spans="1:2">
@@ -48471,7 +48471,7 @@
         <v>6016</v>
       </c>
       <c r="B6016">
-        <v>49.09203661512329</v>
+        <v>49.09203661512328</v>
       </c>
     </row>
     <row r="6017" spans="1:2">
@@ -48615,7 +48615,7 @@
         <v>6034</v>
       </c>
       <c r="B6034">
-        <v>42.28985780779347</v>
+        <v>42.28985780779346</v>
       </c>
     </row>
     <row r="6035" spans="1:2">
@@ -48887,7 +48887,7 @@
         <v>6068</v>
       </c>
       <c r="B6068">
-        <v>5.377062267631301</v>
+        <v>5.3770622676313</v>
       </c>
     </row>
     <row r="6069" spans="1:2">
@@ -49031,7 +49031,7 @@
         <v>6086</v>
       </c>
       <c r="B6086">
-        <v>34.76936188470469</v>
+        <v>34.76936188470468</v>
       </c>
     </row>
     <row r="6087" spans="1:2">
@@ -49263,7 +49263,7 @@
         <v>6115</v>
       </c>
       <c r="B6115">
-        <v>9.760262028954248</v>
+        <v>9.760262028954246</v>
       </c>
     </row>
     <row r="6116" spans="1:2">
@@ -50039,7 +50039,7 @@
         <v>6212</v>
       </c>
       <c r="B6212">
-        <v>7.234048289901183</v>
+        <v>7.234048289901182</v>
       </c>
     </row>
     <row r="6213" spans="1:2">
@@ -50255,7 +50255,7 @@
         <v>6239</v>
       </c>
       <c r="B6239">
-        <v>7.366692241999308</v>
+        <v>7.366692241999307</v>
       </c>
     </row>
     <row r="6240" spans="1:2">
@@ -52479,7 +52479,7 @@
         <v>6517</v>
       </c>
       <c r="B6517">
-        <v>6.719884459673719</v>
+        <v>6.719884459673718</v>
       </c>
     </row>
     <row r="6518" spans="1:2">
@@ -52639,7 +52639,7 @@
         <v>6537</v>
       </c>
       <c r="B6537">
-        <v>36.10928267346436</v>
+        <v>36.10928267346435</v>
       </c>
     </row>
     <row r="6538" spans="1:2">
@@ -52671,7 +52671,7 @@
         <v>6541</v>
       </c>
       <c r="B6541">
-        <v>53.00541419436824</v>
+        <v>53.00541419436823</v>
       </c>
     </row>
     <row r="6542" spans="1:2">
@@ -57279,7 +57279,7 @@
         <v>7117</v>
       </c>
       <c r="B7117">
-        <v>9.613111060442389</v>
+        <v>9.613111060442384</v>
       </c>
     </row>
     <row r="7118" spans="1:2">
